--- a/biology/Botanique/Chamarea/Chamarea.xlsx
+++ b/biology/Botanique/Chamarea/Chamarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamarea est un  genre de plantes de la sous-famille des Apioideae dans la famille des Apiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chamarea est décrit en 1837 par les botanistes Christian Friedrich Ecklon et Carl Ludwig Philipp Zeyher[1].
-L'espèce type est Chamarea capensis Eckl. &amp; Zeyh. (1837)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chamarea est décrit en 1837 par les botanistes Christian Friedrich Ecklon et Carl Ludwig Philipp Zeyher.
+L'espèce type est Chamarea capensis Eckl. &amp; Zeyh. (1837).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chamarea est présent en Afrique du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chamarea est présent en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Annesorhiza comprend 5 espèces selon NCBI en 2020[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Annesorhiza comprend 5 espèces selon NCBI en 2020 :
 Chamarea capensis
 Chamarea esterhuyseniae 
 Chamarea gracillima
